--- a/Intervalo_AOD/Intervalo_datos/Min_Max_tablas/resultado_AOD_media_IQCA.xlsx
+++ b/Intervalo_AOD/Intervalo_datos/Min_Max_tablas/resultado_AOD_media_IQCA.xlsx
@@ -1225,13 +1225,13 @@
         <v>0.84</v>
       </c>
       <c r="D6" t="n">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0.504</v>
+        <v>0.495</v>
       </c>
       <c r="F6" t="n">
-        <v>0.504</v>
+        <v>0.495</v>
       </c>
       <c r="G6" s="19" t="inlineStr"/>
       <c r="I6" s="20" t="inlineStr"/>
@@ -1239,55 +1239,60 @@
       <c r="M6" s="22" t="inlineStr"/>
       <c r="O6" s="23" t="inlineStr"/>
       <c r="Q6" s="17" t="n">
-        <v>0.586</v>
+        <v>0.58</v>
       </c>
       <c r="R6" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="S6" s="18" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.229</v>
-      </c>
+        <v>0.169</v>
+      </c>
+      <c r="S6" s="18" t="inlineStr"/>
       <c r="U6" s="19" t="inlineStr"/>
       <c r="W6" s="20" t="inlineStr"/>
       <c r="Y6" s="21" t="inlineStr"/>
       <c r="AA6" s="22" t="inlineStr"/>
       <c r="AC6" s="23" t="inlineStr"/>
       <c r="AE6" s="17" t="n">
-        <v>0.586</v>
+        <v>0.581</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="AG6" s="18" t="inlineStr"/>
+        <v>0.093</v>
+      </c>
+      <c r="AG6" s="18" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.539</v>
+      </c>
       <c r="AI6" s="19" t="inlineStr"/>
       <c r="AK6" s="20" t="inlineStr"/>
       <c r="AM6" s="21" t="inlineStr"/>
       <c r="AO6" s="22" t="inlineStr"/>
       <c r="AQ6" s="23" t="n">
-        <v>0.485</v>
+        <v>0.468</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.046</v>
+        <v>0.067</v>
       </c>
       <c r="AS6" s="17" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AU6" s="18" t="n">
         <v>0.584</v>
       </c>
-      <c r="AT6" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="AU6" s="18" t="inlineStr"/>
+      <c r="AV6" t="n">
+        <v>0.285</v>
+      </c>
       <c r="AW6" s="19" t="inlineStr"/>
       <c r="AY6" s="20" t="inlineStr"/>
       <c r="BA6" s="21" t="inlineStr"/>
       <c r="BC6" s="22" t="inlineStr"/>
       <c r="BE6" s="23" t="n">
-        <v>0.39</v>
+        <v>0.422</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.184</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="7">
@@ -1298,16 +1303,16 @@
         </is>
       </c>
       <c r="C7" s="17" t="n">
-        <v>0.604</v>
+        <v>0.569</v>
       </c>
       <c r="D7" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.401</v>
+        <v>0.429</v>
       </c>
       <c r="F7" t="n">
-        <v>0.183</v>
+        <v>0.169</v>
       </c>
       <c r="G7" s="19" t="inlineStr"/>
       <c r="I7" s="20" t="inlineStr"/>
@@ -1315,16 +1320,16 @@
       <c r="M7" s="22" t="inlineStr"/>
       <c r="O7" s="23" t="inlineStr"/>
       <c r="Q7" s="17" t="n">
-        <v>0.584</v>
+        <v>0.608</v>
       </c>
       <c r="R7" t="n">
-        <v>0.156</v>
+        <v>0.144</v>
       </c>
       <c r="S7" s="18" t="n">
-        <v>0.554</v>
+        <v>0.537</v>
       </c>
       <c r="T7" t="n">
-        <v>0.331</v>
+        <v>0.29</v>
       </c>
       <c r="U7" s="19" t="inlineStr"/>
       <c r="W7" s="20" t="inlineStr"/>
@@ -1335,13 +1340,13 @@
         <v>0.468</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.043</v>
+        <v>0.049</v>
       </c>
       <c r="AG7" s="18" t="n">
-        <v>0.19</v>
+        <v>0.258</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.19</v>
+        <v>0.233</v>
       </c>
       <c r="AI7" s="19" t="inlineStr"/>
       <c r="AK7" s="20" t="inlineStr"/>
@@ -1352,13 +1357,13 @@
         <v>0.58</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.206</v>
+        <v>0.158</v>
       </c>
       <c r="AU7" s="18" t="n">
-        <v>0.571</v>
+        <v>0.456</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.052</v>
+        <v>0.111</v>
       </c>
       <c r="AW7" s="19" t="inlineStr"/>
       <c r="AY7" s="20" t="inlineStr"/>
@@ -1374,16 +1379,16 @@
         </is>
       </c>
       <c r="C8" s="17" t="n">
-        <v>0.786</v>
+        <v>0.853</v>
       </c>
       <c r="D8" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.516</v>
+        <v>0.489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.178</v>
+        <v>0.205</v>
       </c>
       <c r="G8" s="19" t="inlineStr"/>
       <c r="I8" s="20" t="inlineStr"/>
@@ -1391,55 +1396,60 @@
       <c r="M8" s="22" t="inlineStr"/>
       <c r="O8" s="23" t="inlineStr"/>
       <c r="Q8" s="17" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.157</v>
+        <v>0.195</v>
       </c>
       <c r="S8" s="18" t="n">
-        <v>0.597</v>
+        <v>0.577</v>
       </c>
       <c r="T8" t="n">
-        <v>0.302</v>
+        <v>0.577</v>
       </c>
       <c r="U8" s="19" t="inlineStr"/>
       <c r="W8" s="20" t="inlineStr"/>
       <c r="Y8" s="21" t="inlineStr"/>
       <c r="AA8" s="22" t="inlineStr"/>
       <c r="AC8" s="23" t="n">
-        <v>0.427</v>
+        <v>0.512</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.357</v>
+        <v>0.512</v>
       </c>
       <c r="AE8" s="17" t="n">
-        <v>0.586</v>
+        <v>0.52</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AG8" s="18" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AG8" s="18" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.528</v>
+      </c>
       <c r="AI8" s="19" t="inlineStr"/>
       <c r="AK8" s="20" t="inlineStr"/>
       <c r="AM8" s="21" t="inlineStr"/>
       <c r="AO8" s="22" t="inlineStr"/>
       <c r="AQ8" s="23" t="n">
-        <v>0.17</v>
+        <v>0.298</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.128</v>
+        <v>0.142</v>
       </c>
       <c r="AS8" s="17" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.136</v>
+        <v>0.132</v>
       </c>
       <c r="AU8" s="18" t="n">
-        <v>0.577</v>
+        <v>0.58</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.256</v>
+        <v>0.231</v>
       </c>
       <c r="AW8" s="19" t="inlineStr"/>
       <c r="AY8" s="20" t="inlineStr"/>
@@ -1455,16 +1465,16 @@
         </is>
       </c>
       <c r="C9" s="17" t="n">
-        <v>0.669</v>
+        <v>0.583</v>
       </c>
       <c r="D9" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.458</v>
+        <v>0.411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.321</v>
+        <v>0.28</v>
       </c>
       <c r="G9" s="19" t="inlineStr"/>
       <c r="I9" s="20" t="inlineStr"/>
@@ -1472,16 +1482,16 @@
       <c r="M9" s="22" t="inlineStr"/>
       <c r="O9" s="23" t="inlineStr"/>
       <c r="Q9" s="17" t="n">
-        <v>0.584</v>
+        <v>0.645</v>
       </c>
       <c r="R9" t="n">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
       <c r="S9" s="18" t="n">
-        <v>0.57</v>
+        <v>0.352</v>
       </c>
       <c r="T9" t="n">
-        <v>0.246</v>
+        <v>0.269</v>
       </c>
       <c r="U9" s="19" t="inlineStr"/>
       <c r="W9" s="20" t="inlineStr"/>
@@ -1489,28 +1499,33 @@
       <c r="AA9" s="22" t="inlineStr"/>
       <c r="AC9" s="23" t="inlineStr"/>
       <c r="AE9" s="17" t="n">
-        <v>0.505</v>
+        <v>0.52</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AG9" s="18" t="inlineStr"/>
+        <v>0.053</v>
+      </c>
+      <c r="AG9" s="18" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.327</v>
+      </c>
       <c r="AI9" s="19" t="inlineStr"/>
       <c r="AK9" s="20" t="inlineStr"/>
       <c r="AM9" s="21" t="inlineStr"/>
       <c r="AO9" s="22" t="inlineStr"/>
       <c r="AQ9" s="23" t="inlineStr"/>
       <c r="AS9" s="17" t="n">
-        <v>0.594</v>
+        <v>0.586</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.052</v>
+        <v>0.127</v>
       </c>
       <c r="AU9" s="18" t="n">
-        <v>0.493</v>
+        <v>0.552</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.244</v>
+        <v>0.505</v>
       </c>
       <c r="AW9" s="19" t="inlineStr"/>
       <c r="AY9" s="20" t="inlineStr"/>
@@ -1526,16 +1541,16 @@
         </is>
       </c>
       <c r="C10" s="17" t="n">
-        <v>0.786</v>
+        <v>0.823</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.446</v>
+        <v>0.535</v>
       </c>
       <c r="F10" t="n">
-        <v>0.196</v>
+        <v>0.192</v>
       </c>
       <c r="G10" s="19" t="inlineStr"/>
       <c r="I10" s="20" t="inlineStr"/>
@@ -1543,16 +1558,16 @@
       <c r="M10" s="22" t="inlineStr"/>
       <c r="O10" s="23" t="inlineStr"/>
       <c r="Q10" s="17" t="n">
-        <v>1.32</v>
+        <v>1.319</v>
       </c>
       <c r="R10" t="n">
-        <v>0.174</v>
+        <v>0.182</v>
       </c>
       <c r="S10" s="18" t="n">
         <v>0.582</v>
       </c>
       <c r="T10" t="n">
-        <v>0.296</v>
+        <v>0.259</v>
       </c>
       <c r="U10" s="19" t="inlineStr"/>
       <c r="W10" s="20" t="inlineStr"/>
@@ -1560,16 +1575,16 @@
       <c r="AA10" s="22" t="inlineStr"/>
       <c r="AC10" s="23" t="inlineStr"/>
       <c r="AE10" s="17" t="n">
-        <v>0.593</v>
+        <v>0.534</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.019</v>
+        <v>0.062</v>
       </c>
       <c r="AG10" s="18" t="n">
-        <v>0.318</v>
+        <v>0.274</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.119</v>
+        <v>0.111</v>
       </c>
       <c r="AI10" s="19" t="inlineStr"/>
       <c r="AK10" s="20" t="inlineStr"/>
@@ -1577,16 +1592,16 @@
       <c r="AO10" s="22" t="inlineStr"/>
       <c r="AQ10" s="23" t="inlineStr"/>
       <c r="AS10" s="17" t="n">
-        <v>0.599</v>
+        <v>0.598</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.134</v>
+        <v>0.137</v>
       </c>
       <c r="AU10" s="18" t="n">
-        <v>0.54</v>
+        <v>0.547</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.216</v>
+        <v>0.428</v>
       </c>
       <c r="AW10" s="19" t="inlineStr"/>
       <c r="AY10" s="20" t="inlineStr"/>
@@ -1602,16 +1617,16 @@
         </is>
       </c>
       <c r="C11" s="17" t="n">
-        <v>0.585</v>
+        <v>0.534</v>
       </c>
       <c r="D11" t="n">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="E11" s="18" t="n">
-        <v>0.412</v>
+        <v>0.413</v>
       </c>
       <c r="F11" t="n">
-        <v>0.169</v>
+        <v>0.207</v>
       </c>
       <c r="G11" s="19" t="inlineStr"/>
       <c r="I11" s="20" t="inlineStr"/>
@@ -1619,16 +1634,16 @@
       <c r="M11" s="22" t="inlineStr"/>
       <c r="O11" s="23" t="inlineStr"/>
       <c r="Q11" s="17" t="n">
-        <v>1.266</v>
+        <v>1.229</v>
       </c>
       <c r="R11" t="n">
-        <v>0.159</v>
+        <v>0.175</v>
       </c>
       <c r="S11" s="18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="T11" t="n">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="U11" s="19" t="inlineStr"/>
       <c r="W11" s="20" t="inlineStr"/>
@@ -1636,38 +1651,38 @@
       <c r="AA11" s="22" t="inlineStr"/>
       <c r="AC11" s="23" t="inlineStr"/>
       <c r="AE11" s="17" t="n">
-        <v>0.58</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.033</v>
+        <v>0.073</v>
       </c>
       <c r="AG11" s="18" t="n">
-        <v>0.287</v>
+        <v>0.389</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.287</v>
+        <v>0.27</v>
       </c>
       <c r="AI11" s="19" t="inlineStr"/>
       <c r="AK11" s="20" t="inlineStr"/>
       <c r="AM11" s="21" t="inlineStr"/>
       <c r="AO11" s="22" t="inlineStr"/>
       <c r="AQ11" s="23" t="n">
-        <v>0.473</v>
+        <v>0.455</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.281</v>
+        <v>0.242</v>
       </c>
       <c r="AS11" s="17" t="n">
-        <v>0.589</v>
+        <v>0.608</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.118</v>
+        <v>0.157</v>
       </c>
       <c r="AU11" s="18" t="n">
-        <v>0.49</v>
+        <v>0.579</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.303</v>
+        <v>0.434</v>
       </c>
       <c r="AW11" s="19" t="inlineStr"/>
       <c r="AY11" s="20" t="inlineStr"/>
@@ -1683,10 +1698,10 @@
         </is>
       </c>
       <c r="C12" s="17" t="n">
-        <v>0.577</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="E12" s="18" t="inlineStr"/>
       <c r="G12" s="19" t="inlineStr"/>
@@ -1695,10 +1710,10 @@
       <c r="M12" s="22" t="inlineStr"/>
       <c r="O12" s="23" t="inlineStr"/>
       <c r="Q12" s="17" t="n">
-        <v>0.59</v>
+        <v>0.579</v>
       </c>
       <c r="R12" t="n">
-        <v>0.111</v>
+        <v>0.136</v>
       </c>
       <c r="S12" s="18" t="inlineStr"/>
       <c r="U12" s="19" t="inlineStr"/>
@@ -1707,10 +1722,10 @@
       <c r="AA12" s="22" t="inlineStr"/>
       <c r="AC12" s="23" t="inlineStr"/>
       <c r="AE12" s="17" t="n">
-        <v>0.572</v>
+        <v>0.556</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.004</v>
+        <v>0.014</v>
       </c>
       <c r="AG12" s="18" t="inlineStr"/>
       <c r="AI12" s="19" t="inlineStr"/>
@@ -1719,10 +1734,10 @@
       <c r="AO12" s="22" t="inlineStr"/>
       <c r="AQ12" s="23" t="inlineStr"/>
       <c r="AS12" s="17" t="n">
-        <v>0.599</v>
+        <v>0.594</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.115</v>
+        <v>0.151</v>
       </c>
       <c r="AU12" s="18" t="inlineStr"/>
       <c r="AW12" s="19" t="inlineStr"/>
@@ -1739,22 +1754,22 @@
         </is>
       </c>
       <c r="C13" s="17" t="n">
-        <v>0.589</v>
+        <v>0.585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18" t="n">
-        <v>0.271</v>
+        <v>0.254</v>
       </c>
       <c r="F13" t="n">
-        <v>0.202</v>
+        <v>0.16</v>
       </c>
       <c r="G13" s="19" t="n">
-        <v>0.107</v>
+        <v>0.184</v>
       </c>
       <c r="H13" t="n">
-        <v>0.107</v>
+        <v>0.184</v>
       </c>
       <c r="I13" s="20" t="inlineStr"/>
       <c r="K13" s="21" t="inlineStr"/>
@@ -1764,7 +1779,7 @@
         <v>0.593</v>
       </c>
       <c r="R13" t="n">
-        <v>0.122</v>
+        <v>0.17</v>
       </c>
       <c r="S13" s="18" t="inlineStr"/>
       <c r="U13" s="19" t="inlineStr"/>
@@ -1773,32 +1788,37 @@
       <c r="AA13" s="22" t="inlineStr"/>
       <c r="AC13" s="23" t="inlineStr"/>
       <c r="AE13" s="17" t="n">
-        <v>0.556</v>
+        <v>0.533</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.003</v>
+        <v>0.081</v>
       </c>
       <c r="AG13" s="18" t="n">
-        <v>0.593</v>
+        <v>0.4</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.13</v>
+        <v>0.174</v>
       </c>
       <c r="AI13" s="19" t="n">
-        <v>0.212</v>
+        <v>0.588</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.212</v>
+        <v>0.256</v>
       </c>
       <c r="AK13" s="20" t="inlineStr"/>
       <c r="AM13" s="21" t="inlineStr"/>
       <c r="AO13" s="22" t="inlineStr"/>
-      <c r="AQ13" s="23" t="inlineStr"/>
+      <c r="AQ13" s="23" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.355</v>
+      </c>
       <c r="AS13" s="17" t="n">
-        <v>0.578</v>
+        <v>0.584</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.128</v>
+        <v>0.175</v>
       </c>
       <c r="AU13" s="18" t="inlineStr"/>
       <c r="AW13" s="19" t="inlineStr"/>
@@ -1815,16 +1835,16 @@
         </is>
       </c>
       <c r="C14" s="17" t="n">
-        <v>0.578</v>
+        <v>0.552</v>
       </c>
       <c r="D14" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18" t="n">
-        <v>0.146</v>
+        <v>0.099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.146</v>
+        <v>0.099</v>
       </c>
       <c r="G14" s="19" t="inlineStr"/>
       <c r="I14" s="20" t="inlineStr"/>
@@ -1832,39 +1852,49 @@
       <c r="M14" s="22" t="inlineStr"/>
       <c r="O14" s="23" t="inlineStr"/>
       <c r="Q14" s="17" t="n">
-        <v>0.592</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.174</v>
       </c>
       <c r="S14" s="18" t="inlineStr"/>
       <c r="U14" s="19" t="inlineStr"/>
       <c r="W14" s="20" t="inlineStr"/>
       <c r="Y14" s="21" t="inlineStr"/>
       <c r="AA14" s="22" t="inlineStr"/>
-      <c r="AC14" s="23" t="inlineStr"/>
+      <c r="AC14" s="23" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.381</v>
+      </c>
       <c r="AE14" s="17" t="n">
-        <v>0.556</v>
+        <v>0.552</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="AG14" s="18" t="inlineStr"/>
+        <v>0.032</v>
+      </c>
+      <c r="AG14" s="18" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.406</v>
+      </c>
       <c r="AI14" s="19" t="inlineStr"/>
       <c r="AK14" s="20" t="inlineStr"/>
       <c r="AM14" s="21" t="inlineStr"/>
       <c r="AO14" s="22" t="inlineStr"/>
       <c r="AQ14" s="23" t="n">
-        <v>0.468</v>
+        <v>0.517</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.153</v>
+        <v>0.263</v>
       </c>
       <c r="AS14" s="17" t="n">
-        <v>0.588</v>
+        <v>0.589</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.075</v>
+        <v>0.116</v>
       </c>
       <c r="AU14" s="18" t="inlineStr"/>
       <c r="AW14" s="19" t="inlineStr"/>
@@ -1872,10 +1902,10 @@
       <c r="BA14" s="21" t="inlineStr"/>
       <c r="BC14" s="22" t="inlineStr"/>
       <c r="BE14" s="23" t="n">
-        <v>0.406</v>
+        <v>0.514</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.106</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="15">
@@ -1890,16 +1920,16 @@
         </is>
       </c>
       <c r="C15" s="17" t="n">
-        <v>0.595</v>
+        <v>0.589</v>
       </c>
       <c r="D15" t="n">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="E15" s="18" t="n">
-        <v>0.219</v>
+        <v>0.257</v>
       </c>
       <c r="F15" t="n">
-        <v>0.219</v>
+        <v>0.257</v>
       </c>
       <c r="G15" s="19" t="inlineStr"/>
       <c r="I15" s="20" t="inlineStr"/>
@@ -1907,10 +1937,10 @@
       <c r="M15" s="22" t="inlineStr"/>
       <c r="O15" s="23" t="inlineStr"/>
       <c r="Q15" s="17" t="n">
-        <v>0.582</v>
+        <v>0.585</v>
       </c>
       <c r="R15" t="n">
-        <v>0.108</v>
+        <v>0.172</v>
       </c>
       <c r="S15" s="18" t="inlineStr"/>
       <c r="U15" s="19" t="inlineStr"/>
@@ -1919,10 +1949,10 @@
       <c r="AA15" s="22" t="inlineStr"/>
       <c r="AC15" s="23" t="inlineStr"/>
       <c r="AE15" s="17" t="n">
-        <v>0.549</v>
+        <v>0.541</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AG15" s="18" t="inlineStr"/>
       <c r="AI15" s="19" t="inlineStr"/>
@@ -1931,16 +1961,16 @@
       <c r="AO15" s="22" t="inlineStr"/>
       <c r="AQ15" s="23" t="inlineStr"/>
       <c r="AS15" s="17" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.011</v>
+        <v>0.095</v>
       </c>
       <c r="AU15" s="18" t="n">
-        <v>0.522</v>
+        <v>0.387</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.365</v>
+        <v>0.319</v>
       </c>
       <c r="AW15" s="19" t="inlineStr"/>
       <c r="AY15" s="20" t="inlineStr"/>
@@ -1956,16 +1986,16 @@
         </is>
       </c>
       <c r="C16" s="17" t="n">
-        <v>0.597</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18" t="n">
-        <v>0.365</v>
+        <v>0.297</v>
       </c>
       <c r="F16" t="n">
-        <v>0.365</v>
+        <v>0.297</v>
       </c>
       <c r="G16" s="19" t="inlineStr"/>
       <c r="I16" s="20" t="inlineStr"/>
@@ -1973,27 +2003,22 @@
       <c r="M16" s="22" t="inlineStr"/>
       <c r="O16" s="23" t="inlineStr"/>
       <c r="Q16" s="17" t="n">
-        <v>0.59</v>
+        <v>0.619</v>
       </c>
       <c r="R16" t="n">
-        <v>0.23</v>
+        <v>0.266</v>
       </c>
       <c r="S16" s="18" t="inlineStr"/>
       <c r="U16" s="19" t="inlineStr"/>
       <c r="W16" s="20" t="inlineStr"/>
       <c r="Y16" s="21" t="inlineStr"/>
       <c r="AA16" s="22" t="inlineStr"/>
-      <c r="AC16" s="23" t="n">
-        <v>0.501</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.501</v>
-      </c>
+      <c r="AC16" s="23" t="inlineStr"/>
       <c r="AE16" s="17" t="n">
         <v>0.586</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.105</v>
+        <v>0.12</v>
       </c>
       <c r="AG16" s="18" t="inlineStr"/>
       <c r="AI16" s="19" t="inlineStr"/>
@@ -2002,16 +2027,16 @@
       <c r="AO16" s="22" t="inlineStr"/>
       <c r="AQ16" s="23" t="inlineStr"/>
       <c r="AS16" s="17" t="n">
-        <v>0.725</v>
+        <v>0.625</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.005</v>
+        <v>0.108</v>
       </c>
       <c r="AU16" s="18" t="n">
-        <v>0.518</v>
+        <v>0.55</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.245</v>
+        <v>0.262</v>
       </c>
       <c r="AW16" s="19" t="inlineStr"/>
       <c r="AY16" s="20" t="inlineStr"/>
@@ -2027,32 +2052,27 @@
         </is>
       </c>
       <c r="C17" s="17" t="n">
-        <v>0.595</v>
+        <v>0.552</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="E17" s="18" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.527</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.185</v>
       </c>
       <c r="G17" s="19" t="inlineStr"/>
       <c r="I17" s="20" t="inlineStr"/>
       <c r="K17" s="21" t="inlineStr"/>
       <c r="M17" s="22" t="inlineStr"/>
-      <c r="O17" s="23" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.396</v>
-      </c>
+      <c r="O17" s="23" t="inlineStr"/>
       <c r="Q17" s="17" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="R17" t="n">
-        <v>0.108</v>
+        <v>0.155</v>
       </c>
       <c r="S17" s="18" t="inlineStr"/>
       <c r="U17" s="19" t="inlineStr"/>
@@ -2061,10 +2081,10 @@
       <c r="AA17" s="22" t="inlineStr"/>
       <c r="AC17" s="23" t="inlineStr"/>
       <c r="AE17" s="17" t="n">
-        <v>0.576</v>
+        <v>0.572</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.067</v>
+        <v>0.107</v>
       </c>
       <c r="AG17" s="18" t="inlineStr"/>
       <c r="AI17" s="19" t="inlineStr"/>
@@ -2073,16 +2093,16 @@
       <c r="AO17" s="22" t="inlineStr"/>
       <c r="AQ17" s="23" t="inlineStr"/>
       <c r="AS17" s="17" t="n">
-        <v>0.977</v>
+        <v>0.963</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.011</v>
+        <v>0.089</v>
       </c>
       <c r="AU17" s="18" t="n">
-        <v>0.585</v>
+        <v>0.511</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.442</v>
+        <v>0.312</v>
       </c>
       <c r="AW17" s="19" t="inlineStr"/>
       <c r="AY17" s="20" t="inlineStr"/>
@@ -2101,24 +2121,29 @@
         <v>0.597</v>
       </c>
       <c r="D18" t="n">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18" t="inlineStr"/>
       <c r="G18" s="19" t="n">
-        <v>0.174</v>
+        <v>0.27</v>
       </c>
       <c r="H18" t="n">
-        <v>0.174</v>
+        <v>0.27</v>
       </c>
       <c r="I18" s="20" t="inlineStr"/>
       <c r="K18" s="21" t="inlineStr"/>
       <c r="M18" s="22" t="inlineStr"/>
-      <c r="O18" s="23" t="inlineStr"/>
+      <c r="O18" s="23" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.357</v>
+      </c>
       <c r="Q18" s="17" t="n">
-        <v>0.598</v>
+        <v>0.628</v>
       </c>
       <c r="R18" t="n">
-        <v>0.215</v>
+        <v>0.279</v>
       </c>
       <c r="S18" s="18" t="inlineStr"/>
       <c r="U18" s="19" t="inlineStr"/>
@@ -2130,30 +2155,25 @@
         <v>0.597</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.137</v>
+        <v>0.134</v>
       </c>
       <c r="AG18" s="18" t="inlineStr"/>
       <c r="AI18" s="19" t="inlineStr"/>
       <c r="AK18" s="20" t="inlineStr"/>
       <c r="AM18" s="21" t="inlineStr"/>
       <c r="AO18" s="22" t="inlineStr"/>
-      <c r="AQ18" s="23" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0.256</v>
-      </c>
+      <c r="AQ18" s="23" t="inlineStr"/>
       <c r="AS18" s="17" t="n">
-        <v>0.635</v>
+        <v>0.57</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.005</v>
+        <v>0.079</v>
       </c>
       <c r="AU18" s="18" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.541</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.204</v>
+        <v>0.292</v>
       </c>
       <c r="AW18" s="19" t="inlineStr"/>
       <c r="AY18" s="20" t="inlineStr"/>
@@ -2169,16 +2189,16 @@
         </is>
       </c>
       <c r="C19" s="17" t="n">
-        <v>0.595</v>
+        <v>0.578</v>
       </c>
       <c r="D19" t="n">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.526</v>
       </c>
       <c r="F19" t="n">
-        <v>0.185</v>
+        <v>0.138</v>
       </c>
       <c r="G19" s="19" t="inlineStr"/>
       <c r="I19" s="20" t="inlineStr"/>
@@ -2186,22 +2206,27 @@
       <c r="M19" s="22" t="inlineStr"/>
       <c r="O19" s="23" t="inlineStr"/>
       <c r="Q19" s="17" t="n">
-        <v>0.503</v>
+        <v>0.508</v>
       </c>
       <c r="R19" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="S19" s="18" t="inlineStr"/>
+        <v>0.151</v>
+      </c>
+      <c r="S19" s="18" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.426</v>
+      </c>
       <c r="U19" s="19" t="inlineStr"/>
       <c r="W19" s="20" t="inlineStr"/>
       <c r="Y19" s="21" t="inlineStr"/>
       <c r="AA19" s="22" t="inlineStr"/>
       <c r="AC19" s="23" t="inlineStr"/>
       <c r="AE19" s="17" t="n">
-        <v>0.537</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="AG19" s="18" t="inlineStr"/>
       <c r="AI19" s="19" t="inlineStr"/>
@@ -2210,16 +2235,16 @@
       <c r="AO19" s="22" t="inlineStr"/>
       <c r="AQ19" s="23" t="inlineStr"/>
       <c r="AS19" s="17" t="n">
-        <v>0.882</v>
+        <v>0.929</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.134</v>
       </c>
       <c r="AU19" s="18" t="n">
-        <v>0.576</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.169</v>
+        <v>0.285</v>
       </c>
       <c r="AW19" s="19" t="inlineStr"/>
       <c r="AY19" s="20" t="inlineStr"/>
@@ -2235,16 +2260,16 @@
         </is>
       </c>
       <c r="C20" s="17" t="n">
-        <v>0.577</v>
+        <v>0.578</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="n">
-        <v>0.384</v>
+        <v>0.471</v>
       </c>
       <c r="F20" t="n">
-        <v>0.384</v>
+        <v>0.471</v>
       </c>
       <c r="G20" s="19" t="inlineStr"/>
       <c r="I20" s="20" t="inlineStr"/>
@@ -2252,10 +2277,10 @@
       <c r="M20" s="22" t="inlineStr"/>
       <c r="O20" s="23" t="inlineStr"/>
       <c r="Q20" s="17" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>0.099</v>
+        <v>0.157</v>
       </c>
       <c r="S20" s="18" t="inlineStr"/>
       <c r="U20" s="19" t="inlineStr"/>
@@ -2264,17 +2289,12 @@
       <c r="AA20" s="22" t="inlineStr"/>
       <c r="AC20" s="23" t="inlineStr"/>
       <c r="AE20" s="17" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.503</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="AG20" s="18" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0.289</v>
-      </c>
+        <v>0.155</v>
+      </c>
+      <c r="AG20" s="18" t="inlineStr"/>
       <c r="AI20" s="19" t="inlineStr"/>
       <c r="AK20" s="20" t="inlineStr"/>
       <c r="AM20" s="21" t="inlineStr"/>
@@ -2284,13 +2304,13 @@
         <v>0.872</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.033</v>
+        <v>0.113</v>
       </c>
       <c r="AU20" s="18" t="n">
-        <v>0.599</v>
+        <v>0.572</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.319</v>
+        <v>0.309</v>
       </c>
       <c r="AW20" s="19" t="inlineStr"/>
       <c r="AY20" s="20" t="inlineStr"/>
@@ -2306,10 +2326,10 @@
         </is>
       </c>
       <c r="C21" s="17" t="n">
-        <v>0.579</v>
+        <v>0.586</v>
       </c>
       <c r="D21" t="n">
-        <v>0.076</v>
+        <v>0.134</v>
       </c>
       <c r="E21" s="18" t="inlineStr"/>
       <c r="G21" s="19" t="inlineStr"/>
@@ -2317,16 +2337,16 @@
       <c r="K21" s="21" t="inlineStr"/>
       <c r="M21" s="22" t="inlineStr"/>
       <c r="O21" s="23" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.525</v>
       </c>
       <c r="P21" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="17" t="n">
-        <v>0.587</v>
+        <v>0.573</v>
       </c>
       <c r="R21" t="n">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="S21" s="18" t="inlineStr"/>
       <c r="U21" s="19" t="inlineStr"/>
@@ -2334,10 +2354,10 @@
       <c r="Y21" s="21" t="inlineStr"/>
       <c r="AA21" s="22" t="inlineStr"/>
       <c r="AC21" s="23" t="n">
-        <v>0.486</v>
+        <v>0.475</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.221</v>
+        <v>0.269</v>
       </c>
       <c r="AE21" s="17" t="inlineStr"/>
       <c r="AG21" s="18" t="inlineStr"/>
@@ -2346,10 +2366,10 @@
       <c r="AM21" s="21" t="inlineStr"/>
       <c r="AO21" s="22" t="inlineStr"/>
       <c r="AQ21" s="23" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.045</v>
+        <v>0.057</v>
       </c>
       <c r="AS21" s="17" t="inlineStr"/>
       <c r="AU21" s="18" t="inlineStr"/>
@@ -2358,10 +2378,10 @@
       <c r="BA21" s="21" t="inlineStr"/>
       <c r="BC21" s="22" t="inlineStr"/>
       <c r="BE21" s="23" t="n">
-        <v>0.911</v>
+        <v>0.873</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.06</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2375,29 +2395,29 @@
         <v>0.588</v>
       </c>
       <c r="D22" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="E22" s="18" t="n">
-        <v>0.278</v>
+        <v>0.249</v>
       </c>
       <c r="F22" t="n">
-        <v>0.278</v>
+        <v>0.249</v>
       </c>
       <c r="G22" s="19" t="inlineStr"/>
       <c r="I22" s="20" t="inlineStr"/>
       <c r="K22" s="21" t="inlineStr"/>
       <c r="M22" s="22" t="inlineStr"/>
       <c r="O22" s="23" t="n">
-        <v>0.362</v>
+        <v>0.273</v>
       </c>
       <c r="P22" t="n">
-        <v>0.223</v>
+        <v>0.226</v>
       </c>
       <c r="Q22" s="17" t="n">
-        <v>0.594</v>
+        <v>0.577</v>
       </c>
       <c r="R22" t="n">
-        <v>0.168</v>
+        <v>0.198</v>
       </c>
       <c r="S22" s="18" t="inlineStr"/>
       <c r="U22" s="19" t="inlineStr"/>
@@ -2405,16 +2425,16 @@
       <c r="Y22" s="21" t="inlineStr"/>
       <c r="AA22" s="22" t="inlineStr"/>
       <c r="AC22" s="23" t="n">
-        <v>0.185</v>
+        <v>0.429</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.185</v>
+        <v>0.221</v>
       </c>
       <c r="AE22" s="17" t="n">
         <v>0.585</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.011</v>
+        <v>0.067</v>
       </c>
       <c r="AG22" s="18" t="inlineStr"/>
       <c r="AI22" s="19" t="inlineStr"/>
@@ -2422,22 +2442,22 @@
       <c r="AM22" s="21" t="inlineStr"/>
       <c r="AO22" s="22" t="inlineStr"/>
       <c r="AQ22" s="23" t="n">
-        <v>0.52</v>
+        <v>0.427</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.201</v>
+        <v>0.152</v>
       </c>
       <c r="AS22" s="17" t="n">
-        <v>0.579</v>
+        <v>0.555</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.089</v>
+        <v>0.115</v>
       </c>
       <c r="AU22" s="18" t="n">
-        <v>0.592</v>
+        <v>0.59</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="AW22" s="19" t="inlineStr"/>
       <c r="AY22" s="20" t="inlineStr"/>
@@ -2456,7 +2476,7 @@
         <v>0.615</v>
       </c>
       <c r="D23" t="n">
-        <v>0.078</v>
+        <v>0</v>
       </c>
       <c r="E23" s="18" t="inlineStr"/>
       <c r="G23" s="19" t="inlineStr"/>
@@ -2468,7 +2488,7 @@
         <v>0.599</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="S23" s="18" t="inlineStr"/>
       <c r="U23" s="19" t="inlineStr"/>
@@ -2477,10 +2497,10 @@
       <c r="AA23" s="22" t="inlineStr"/>
       <c r="AC23" s="23" t="inlineStr"/>
       <c r="AE23" s="17" t="n">
-        <v>0.547</v>
+        <v>0.574</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.014</v>
+        <v>0.023</v>
       </c>
       <c r="AG23" s="18" t="inlineStr"/>
       <c r="AI23" s="19" t="inlineStr"/>
@@ -2489,26 +2509,26 @@
       <c r="AO23" s="22" t="inlineStr"/>
       <c r="AQ23" s="23" t="inlineStr"/>
       <c r="AS23" s="17" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.058</v>
+        <v>0.063</v>
       </c>
       <c r="AU23" s="18" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.449</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.427</v>
+        <v>0.321</v>
       </c>
       <c r="AW23" s="19" t="inlineStr"/>
       <c r="AY23" s="20" t="inlineStr"/>
       <c r="BA23" s="21" t="inlineStr"/>
       <c r="BC23" s="22" t="inlineStr"/>
       <c r="BE23" s="23" t="n">
-        <v>0.215</v>
+        <v>0.226</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.215</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="24">
@@ -2523,10 +2543,10 @@
         </is>
       </c>
       <c r="C24" s="17" t="n">
-        <v>0.572</v>
+        <v>0.556</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="E24" s="18" t="inlineStr"/>
       <c r="G24" s="19" t="inlineStr"/>
@@ -2535,10 +2555,10 @@
       <c r="M24" s="22" t="inlineStr"/>
       <c r="O24" s="23" t="inlineStr"/>
       <c r="Q24" s="17" t="n">
-        <v>0.572</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>0.176</v>
+        <v>0.218</v>
       </c>
       <c r="S24" s="18" t="inlineStr"/>
       <c r="U24" s="19" t="inlineStr"/>
@@ -2550,7 +2570,7 @@
         <v>0.595</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.083</v>
+        <v>0.128</v>
       </c>
       <c r="AG24" s="18" t="inlineStr"/>
       <c r="AI24" s="19" t="inlineStr"/>
@@ -2559,10 +2579,10 @@
       <c r="AO24" s="22" t="inlineStr"/>
       <c r="AQ24" s="23" t="inlineStr"/>
       <c r="AS24" s="17" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="AU24" s="18" t="inlineStr"/>
       <c r="AW24" s="19" t="inlineStr"/>
@@ -2579,10 +2599,10 @@
         </is>
       </c>
       <c r="C25" s="17" t="n">
-        <v>0.703</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="E25" s="18" t="inlineStr"/>
       <c r="G25" s="19" t="inlineStr"/>
@@ -2591,27 +2611,32 @@
       <c r="M25" s="22" t="inlineStr"/>
       <c r="O25" s="23" t="inlineStr"/>
       <c r="Q25" s="17" t="n">
-        <v>0.613</v>
+        <v>0.621</v>
       </c>
       <c r="R25" t="n">
-        <v>0.138</v>
+        <v>0.254</v>
       </c>
       <c r="S25" s="18" t="n">
-        <v>0.528</v>
+        <v>0.307</v>
       </c>
       <c r="T25" t="n">
-        <v>0.528</v>
+        <v>0.307</v>
       </c>
       <c r="U25" s="19" t="inlineStr"/>
       <c r="W25" s="20" t="inlineStr"/>
       <c r="Y25" s="21" t="inlineStr"/>
       <c r="AA25" s="22" t="inlineStr"/>
-      <c r="AC25" s="23" t="inlineStr"/>
+      <c r="AC25" s="23" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.457</v>
+      </c>
       <c r="AE25" s="17" t="n">
-        <v>0.592</v>
+        <v>0.588</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.138</v>
+        <v>0.148</v>
       </c>
       <c r="AG25" s="18" t="inlineStr"/>
       <c r="AI25" s="19" t="inlineStr"/>
@@ -2620,16 +2645,16 @@
       <c r="AO25" s="22" t="inlineStr"/>
       <c r="AQ25" s="23" t="inlineStr"/>
       <c r="AS25" s="17" t="n">
-        <v>0.583</v>
+        <v>0.619</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.126</v>
+        <v>0.167</v>
       </c>
       <c r="AU25" s="18" t="n">
-        <v>0.438</v>
+        <v>0.383</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.438</v>
+        <v>0.35</v>
       </c>
       <c r="AW25" s="19" t="inlineStr"/>
       <c r="AY25" s="20" t="inlineStr"/>
@@ -2645,10 +2670,10 @@
         </is>
       </c>
       <c r="C26" s="17" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="D26" t="n">
-        <v>0.183</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="inlineStr"/>
       <c r="G26" s="19" t="inlineStr"/>
@@ -2657,10 +2682,10 @@
       <c r="M26" s="22" t="inlineStr"/>
       <c r="O26" s="23" t="inlineStr"/>
       <c r="Q26" s="17" t="n">
-        <v>0.572</v>
+        <v>0.544</v>
       </c>
       <c r="R26" t="n">
-        <v>0.16</v>
+        <v>0.218</v>
       </c>
       <c r="S26" s="18" t="inlineStr"/>
       <c r="U26" s="19" t="inlineStr"/>
@@ -2669,10 +2694,10 @@
       <c r="AA26" s="22" t="inlineStr"/>
       <c r="AC26" s="23" t="inlineStr"/>
       <c r="AE26" s="17" t="n">
-        <v>0.578</v>
+        <v>0.536</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.128</v>
+        <v>0.127</v>
       </c>
       <c r="AG26" s="18" t="inlineStr"/>
       <c r="AI26" s="19" t="inlineStr"/>
@@ -2681,12 +2706,17 @@
       <c r="AO26" s="22" t="inlineStr"/>
       <c r="AQ26" s="23" t="inlineStr"/>
       <c r="AS26" s="17" t="n">
-        <v>0.575</v>
+        <v>0.524</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="AU26" s="18" t="inlineStr"/>
+        <v>0.123</v>
+      </c>
+      <c r="AU26" s="18" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.445</v>
+      </c>
       <c r="AW26" s="19" t="inlineStr"/>
       <c r="AY26" s="20" t="inlineStr"/>
       <c r="BA26" s="21" t="inlineStr"/>
@@ -2704,7 +2734,7 @@
         <v>0.588</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241</v>
+        <v>0</v>
       </c>
       <c r="E27" s="18" t="inlineStr"/>
       <c r="G27" s="19" t="inlineStr"/>
@@ -2713,10 +2743,10 @@
       <c r="M27" s="22" t="inlineStr"/>
       <c r="O27" s="23" t="inlineStr"/>
       <c r="Q27" s="17" t="n">
-        <v>0.593</v>
+        <v>0.581</v>
       </c>
       <c r="R27" t="n">
-        <v>0.173</v>
+        <v>0.233</v>
       </c>
       <c r="S27" s="18" t="inlineStr"/>
       <c r="U27" s="19" t="inlineStr"/>
@@ -2725,10 +2755,10 @@
       <c r="AA27" s="22" t="inlineStr"/>
       <c r="AC27" s="23" t="inlineStr"/>
       <c r="AE27" s="17" t="n">
-        <v>0.547</v>
+        <v>0.552</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.159</v>
+        <v>0.149</v>
       </c>
       <c r="AG27" s="18" t="inlineStr"/>
       <c r="AI27" s="19" t="inlineStr"/>
@@ -2737,10 +2767,10 @@
       <c r="AO27" s="22" t="inlineStr"/>
       <c r="AQ27" s="23" t="inlineStr"/>
       <c r="AS27" s="17" t="n">
-        <v>0.6</v>
+        <v>0.641</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.146</v>
+        <v>0.165</v>
       </c>
       <c r="AU27" s="18" t="inlineStr"/>
       <c r="AW27" s="19" t="inlineStr"/>
@@ -2757,10 +2787,10 @@
         </is>
       </c>
       <c r="C28" s="17" t="n">
-        <v>0.588</v>
+        <v>0.592</v>
       </c>
       <c r="D28" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="inlineStr"/>
       <c r="G28" s="19" t="inlineStr"/>
@@ -2772,13 +2802,13 @@
         <v>0.573</v>
       </c>
       <c r="R28" t="n">
-        <v>0.174</v>
+        <v>0.196</v>
       </c>
       <c r="S28" s="18" t="n">
-        <v>0.573</v>
+        <v>0.293</v>
       </c>
       <c r="T28" t="n">
-        <v>0.408</v>
+        <v>0.229</v>
       </c>
       <c r="U28" s="19" t="inlineStr"/>
       <c r="W28" s="20" t="inlineStr"/>
@@ -2786,33 +2816,28 @@
       <c r="AA28" s="22" t="inlineStr"/>
       <c r="AC28" s="23" t="inlineStr"/>
       <c r="AE28" s="17" t="n">
-        <v>0.593</v>
+        <v>0.538</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="AG28" s="18" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0.314</v>
-      </c>
+        <v>0.121</v>
+      </c>
+      <c r="AG28" s="18" t="inlineStr"/>
       <c r="AI28" s="19" t="inlineStr"/>
       <c r="AK28" s="20" t="inlineStr"/>
       <c r="AM28" s="21" t="inlineStr"/>
       <c r="AO28" s="22" t="inlineStr"/>
       <c r="AQ28" s="23" t="inlineStr"/>
       <c r="AS28" s="17" t="n">
-        <v>1.364</v>
+        <v>1.285</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.045</v>
+        <v>0.103</v>
       </c>
       <c r="AU28" s="18" t="n">
-        <v>0.493</v>
+        <v>0.536</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.245</v>
+        <v>0.252</v>
       </c>
       <c r="AW28" s="19" t="inlineStr"/>
       <c r="AY28" s="20" t="inlineStr"/>
@@ -2828,16 +2853,16 @@
         </is>
       </c>
       <c r="C29" s="17" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18" t="n">
         <v>0.583</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="E29" s="18" t="n">
-        <v>0.445</v>
-      </c>
       <c r="F29" t="n">
-        <v>0.445</v>
+        <v>0.583</v>
       </c>
       <c r="G29" s="19" t="inlineStr"/>
       <c r="I29" s="20" t="inlineStr"/>
@@ -2848,25 +2873,30 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="S29" s="18" t="inlineStr"/>
+        <v>0.226</v>
+      </c>
+      <c r="S29" s="18" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.365</v>
+      </c>
       <c r="U29" s="19" t="inlineStr"/>
       <c r="W29" s="20" t="inlineStr"/>
       <c r="Y29" s="21" t="inlineStr"/>
       <c r="AA29" s="22" t="inlineStr"/>
       <c r="AC29" s="23" t="inlineStr"/>
       <c r="AE29" s="17" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AG29" s="18" t="n">
         <v>0.5580000000000001</v>
       </c>
-      <c r="AF29" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="AG29" s="18" t="n">
-        <v>0.372</v>
-      </c>
       <c r="AH29" t="n">
-        <v>0.174</v>
+        <v>0.189</v>
       </c>
       <c r="AI29" s="19" t="inlineStr"/>
       <c r="AK29" s="20" t="inlineStr"/>
@@ -2877,13 +2907,13 @@
         <v>0.538</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.156</v>
+        <v>0.176</v>
       </c>
       <c r="AU29" s="18" t="n">
-        <v>0.37</v>
+        <v>0.509</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.105</v>
+        <v>0.49</v>
       </c>
       <c r="AW29" s="19" t="inlineStr"/>
       <c r="AY29" s="20" t="inlineStr"/>
@@ -2905,16 +2935,16 @@
       <c r="K30" s="21" t="inlineStr"/>
       <c r="M30" s="22" t="inlineStr"/>
       <c r="O30" s="23" t="n">
-        <v>0.598</v>
+        <v>0.599</v>
       </c>
       <c r="P30" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="17" t="n">
         <v>0.593</v>
       </c>
       <c r="R30" t="n">
-        <v>0.156</v>
+        <v>0.2</v>
       </c>
       <c r="S30" s="18" t="inlineStr"/>
       <c r="U30" s="19" t="inlineStr"/>
@@ -2925,13 +2955,13 @@
         <v>0.576</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.244</v>
+        <v>0.336</v>
       </c>
       <c r="AE30" s="17" t="n">
         <v>0.593</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.083</v>
+        <v>0.092</v>
       </c>
       <c r="AG30" s="18" t="inlineStr"/>
       <c r="AI30" s="19" t="inlineStr"/>
@@ -2940,10 +2970,10 @@
       <c r="AO30" s="22" t="inlineStr"/>
       <c r="AQ30" s="23" t="inlineStr"/>
       <c r="AS30" s="17" t="n">
-        <v>1.364</v>
+        <v>0.997</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.042</v>
+        <v>0.095</v>
       </c>
       <c r="AU30" s="18" t="inlineStr"/>
       <c r="AW30" s="19" t="inlineStr"/>
@@ -2960,10 +2990,10 @@
         </is>
       </c>
       <c r="C31" s="17" t="n">
-        <v>0.582</v>
+        <v>0.584</v>
       </c>
       <c r="D31" t="n">
-        <v>0.265</v>
+        <v>0.258</v>
       </c>
       <c r="E31" s="18" t="inlineStr"/>
       <c r="G31" s="19" t="inlineStr"/>
@@ -2974,13 +3004,13 @@
         <v>0.595</v>
       </c>
       <c r="P31" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="17" t="n">
         <v>0.599</v>
       </c>
       <c r="R31" t="n">
-        <v>0.066</v>
+        <v>0.13</v>
       </c>
       <c r="S31" s="18" t="inlineStr"/>
       <c r="U31" s="19" t="inlineStr"/>
@@ -2988,38 +3018,38 @@
       <c r="Y31" s="21" t="inlineStr"/>
       <c r="AA31" s="22" t="inlineStr"/>
       <c r="AC31" s="23" t="n">
-        <v>0.493</v>
+        <v>0.353</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.301</v>
+        <v>0.297</v>
       </c>
       <c r="AE31" s="17" t="n">
-        <v>0.551</v>
+        <v>0.537</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.089</v>
+        <v>0.19</v>
       </c>
       <c r="AG31" s="18" t="n">
-        <v>0.161</v>
+        <v>0.277</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.161</v>
+        <v>0.277</v>
       </c>
       <c r="AI31" s="19" t="inlineStr"/>
       <c r="AK31" s="20" t="inlineStr"/>
       <c r="AM31" s="21" t="inlineStr"/>
       <c r="AO31" s="22" t="inlineStr"/>
       <c r="AQ31" s="23" t="n">
-        <v>0.582</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.015</v>
+        <v>0.102</v>
       </c>
       <c r="AS31" s="17" t="n">
         <v>0.598</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.13</v>
+        <v>0.163</v>
       </c>
       <c r="AU31" s="18" t="inlineStr"/>
       <c r="AW31" s="19" t="inlineStr"/>
@@ -3027,10 +3057,10 @@
       <c r="BA31" s="21" t="inlineStr"/>
       <c r="BC31" s="22" t="inlineStr"/>
       <c r="BE31" s="23" t="n">
-        <v>0.53</v>
+        <v>0.357</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.236</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3071,10 @@
         </is>
       </c>
       <c r="C32" s="17" t="n">
-        <v>0.586</v>
+        <v>0.592</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="E32" s="18" t="inlineStr"/>
       <c r="G32" s="19" t="inlineStr"/>
@@ -3053,10 +3083,10 @@
       <c r="M32" s="22" t="inlineStr"/>
       <c r="O32" s="23" t="inlineStr"/>
       <c r="Q32" s="17" t="n">
-        <v>0.602</v>
+        <v>0.601</v>
       </c>
       <c r="R32" t="n">
-        <v>0.156</v>
+        <v>0.18</v>
       </c>
       <c r="S32" s="18" t="inlineStr"/>
       <c r="U32" s="19" t="inlineStr"/>
@@ -3065,22 +3095,27 @@
       <c r="AA32" s="22" t="inlineStr"/>
       <c r="AC32" s="23" t="inlineStr"/>
       <c r="AE32" s="17" t="n">
-        <v>0.59</v>
+        <v>0.584</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.053</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AG32" s="18" t="inlineStr"/>
       <c r="AI32" s="19" t="inlineStr"/>
       <c r="AK32" s="20" t="inlineStr"/>
       <c r="AM32" s="21" t="inlineStr"/>
       <c r="AO32" s="22" t="inlineStr"/>
-      <c r="AQ32" s="23" t="inlineStr"/>
+      <c r="AQ32" s="23" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.34</v>
+      </c>
       <c r="AS32" s="17" t="n">
-        <v>0.593</v>
+        <v>0.591</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.02</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AU32" s="18" t="inlineStr"/>
       <c r="AW32" s="19" t="inlineStr"/>
@@ -3104,35 +3139,30 @@
         <v>0.591</v>
       </c>
       <c r="D33" t="n">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="E33" s="18" t="n">
-        <v>0.212</v>
+        <v>0.496</v>
       </c>
       <c r="F33" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="G33" s="19" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.178</v>
-      </c>
+        <v>0.485</v>
+      </c>
+      <c r="G33" s="19" t="inlineStr"/>
       <c r="I33" s="20" t="inlineStr"/>
       <c r="K33" s="21" t="inlineStr"/>
       <c r="M33" s="22" t="inlineStr"/>
       <c r="O33" s="23" t="inlineStr"/>
       <c r="Q33" s="17" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="R33" t="n">
-        <v>0.062</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="S33" s="18" t="n">
-        <v>0.375</v>
+        <v>0.406</v>
       </c>
       <c r="T33" t="n">
-        <v>0.179</v>
+        <v>0.172</v>
       </c>
       <c r="U33" s="19" t="inlineStr"/>
       <c r="W33" s="20" t="inlineStr"/>
@@ -3143,7 +3173,7 @@
         <v>0.593</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.008</v>
+        <v>0.054</v>
       </c>
       <c r="AG33" s="18" t="inlineStr"/>
       <c r="AI33" s="19" t="inlineStr"/>
@@ -3152,22 +3182,22 @@
       <c r="AO33" s="22" t="inlineStr"/>
       <c r="AQ33" s="23" t="inlineStr"/>
       <c r="AS33" s="17" t="n">
-        <v>0.59</v>
+        <v>0.585</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.031</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AU33" s="18" t="n">
-        <v>0.58</v>
+        <v>0.584</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.102</v>
+        <v>0.196</v>
       </c>
       <c r="AW33" s="19" t="n">
-        <v>0.475</v>
+        <v>0.369</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.475</v>
+        <v>0.369</v>
       </c>
       <c r="AY33" s="20" t="inlineStr"/>
       <c r="BA33" s="21" t="inlineStr"/>
@@ -3185,13 +3215,13 @@
         <v>0.597</v>
       </c>
       <c r="D34" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E34" s="18" t="n">
-        <v>0.44</v>
+        <v>0.527</v>
       </c>
       <c r="F34" t="n">
-        <v>0.248</v>
+        <v>0.267</v>
       </c>
       <c r="G34" s="19" t="inlineStr"/>
       <c r="I34" s="20" t="inlineStr"/>
@@ -3199,38 +3229,38 @@
       <c r="M34" s="22" t="inlineStr"/>
       <c r="O34" s="23" t="inlineStr"/>
       <c r="Q34" s="17" t="n">
-        <v>0.542</v>
+        <v>0.543</v>
       </c>
       <c r="R34" t="n">
-        <v>0.066</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="S34" s="18" t="n">
-        <v>0.503</v>
+        <v>0.287</v>
       </c>
       <c r="T34" t="n">
-        <v>0.261</v>
+        <v>0.2</v>
       </c>
       <c r="U34" s="19" t="inlineStr"/>
       <c r="W34" s="20" t="inlineStr"/>
       <c r="Y34" s="21" t="inlineStr"/>
       <c r="AA34" s="22" t="inlineStr"/>
       <c r="AC34" s="23" t="n">
-        <v>0.423</v>
+        <v>0.192</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.263</v>
+        <v>0.192</v>
       </c>
       <c r="AE34" s="17" t="n">
         <v>0.592</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.028</v>
+        <v>0.043</v>
       </c>
       <c r="AG34" s="18" t="n">
-        <v>0.064</v>
+        <v>0.045</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.064</v>
+        <v>0.045</v>
       </c>
       <c r="AI34" s="19" t="inlineStr"/>
       <c r="AK34" s="20" t="inlineStr"/>
@@ -3238,26 +3268,26 @@
       <c r="AO34" s="22" t="inlineStr"/>
       <c r="AQ34" s="23" t="inlineStr"/>
       <c r="AS34" s="17" t="n">
-        <v>0.725</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.064</v>
+        <v>0.08</v>
       </c>
       <c r="AU34" s="18" t="n">
-        <v>0.534</v>
+        <v>0.68</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.058</v>
+        <v>0.143</v>
       </c>
       <c r="AW34" s="19" t="inlineStr"/>
       <c r="AY34" s="20" t="inlineStr"/>
       <c r="BA34" s="21" t="inlineStr"/>
       <c r="BC34" s="22" t="inlineStr"/>
       <c r="BE34" s="23" t="n">
-        <v>0.188</v>
+        <v>0.511</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.15</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="35">
@@ -3271,41 +3301,46 @@
         <v>0.591</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E35" s="18" t="n">
-        <v>0.322</v>
+        <v>0.534</v>
       </c>
       <c r="F35" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G35" s="19" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.195</v>
-      </c>
+        <v>0.534</v>
+      </c>
+      <c r="G35" s="19" t="inlineStr"/>
       <c r="I35" s="20" t="inlineStr"/>
       <c r="K35" s="21" t="inlineStr"/>
       <c r="M35" s="22" t="inlineStr"/>
       <c r="O35" s="23" t="inlineStr"/>
       <c r="Q35" s="17" t="n">
-        <v>0.552</v>
+        <v>0.526</v>
       </c>
       <c r="R35" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="S35" s="18" t="inlineStr"/>
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="S35" s="18" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.165</v>
+      </c>
       <c r="U35" s="19" t="inlineStr"/>
       <c r="W35" s="20" t="inlineStr"/>
       <c r="Y35" s="21" t="inlineStr"/>
       <c r="AA35" s="22" t="inlineStr"/>
-      <c r="AC35" s="23" t="inlineStr"/>
+      <c r="AC35" s="23" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.351</v>
+      </c>
       <c r="AE35" s="17" t="n">
         <v>0.581</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.036</v>
+        <v>0.053</v>
       </c>
       <c r="AG35" s="18" t="inlineStr"/>
       <c r="AI35" s="19" t="inlineStr"/>
@@ -3313,28 +3348,33 @@
       <c r="AM35" s="21" t="inlineStr"/>
       <c r="AO35" s="22" t="inlineStr"/>
       <c r="AQ35" s="23" t="n">
-        <v>0.325</v>
+        <v>0.329</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.273</v>
+        <v>0.329</v>
       </c>
       <c r="AS35" s="17" t="n">
-        <v>0.663</v>
+        <v>0.63</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.028</v>
+        <v>0.066</v>
       </c>
       <c r="AU35" s="18" t="n">
-        <v>0.575</v>
+        <v>0.577</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.137</v>
+        <v>0.197</v>
       </c>
       <c r="AW35" s="19" t="inlineStr"/>
       <c r="AY35" s="20" t="inlineStr"/>
       <c r="BA35" s="21" t="inlineStr"/>
       <c r="BC35" s="22" t="inlineStr"/>
-      <c r="BE35" s="23" t="inlineStr"/>
+      <c r="BE35" s="23" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0.103</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="24" t="n"/>
@@ -3344,32 +3384,27 @@
         </is>
       </c>
       <c r="C36" s="17" t="n">
-        <v>0.592</v>
+        <v>0.578</v>
       </c>
       <c r="D36" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E36" s="18" t="n">
-        <v>0.29</v>
+        <v>0.262</v>
       </c>
       <c r="F36" t="n">
-        <v>0.248</v>
+        <v>0.262</v>
       </c>
       <c r="G36" s="19" t="inlineStr"/>
       <c r="I36" s="20" t="inlineStr"/>
       <c r="K36" s="21" t="inlineStr"/>
       <c r="M36" s="22" t="inlineStr"/>
-      <c r="O36" s="23" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.332</v>
-      </c>
+      <c r="O36" s="23" t="inlineStr"/>
       <c r="Q36" s="17" t="n">
-        <v>0.573</v>
+        <v>0.574</v>
       </c>
       <c r="R36" t="n">
-        <v>0.039</v>
+        <v>0.091</v>
       </c>
       <c r="S36" s="18" t="inlineStr"/>
       <c r="U36" s="19" t="inlineStr"/>
@@ -3377,16 +3412,16 @@
       <c r="Y36" s="21" t="inlineStr"/>
       <c r="AA36" s="22" t="inlineStr"/>
       <c r="AC36" s="23" t="n">
-        <v>0.373</v>
+        <v>0.432</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.321</v>
+        <v>0.312</v>
       </c>
       <c r="AE36" s="17" t="n">
-        <v>0.583</v>
+        <v>0.581</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.033</v>
+        <v>0.049</v>
       </c>
       <c r="AG36" s="18" t="inlineStr"/>
       <c r="AI36" s="19" t="inlineStr"/>
@@ -3395,22 +3430,22 @@
       <c r="AO36" s="22" t="inlineStr"/>
       <c r="AQ36" s="23" t="inlineStr"/>
       <c r="AS36" s="17" t="n">
-        <v>0.597</v>
+        <v>0.581</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.029</v>
+        <v>0.059</v>
       </c>
       <c r="AU36" s="18" t="n">
-        <v>0.534</v>
+        <v>0.583</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.167</v>
+        <v>0.142</v>
       </c>
       <c r="AW36" s="19" t="n">
-        <v>0.116</v>
+        <v>0.165</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.116</v>
+        <v>0.165</v>
       </c>
       <c r="AY36" s="20" t="inlineStr"/>
       <c r="BA36" s="21" t="inlineStr"/>
@@ -3434,7 +3469,7 @@
         <v>0.591</v>
       </c>
       <c r="P37" t="n">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="17" t="inlineStr"/>
       <c r="S37" s="18" t="inlineStr"/>
@@ -3443,10 +3478,10 @@
       <c r="Y37" s="21" t="inlineStr"/>
       <c r="AA37" s="22" t="inlineStr"/>
       <c r="AC37" s="23" t="n">
-        <v>0.552</v>
+        <v>0.516</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.067</v>
+        <v>0.102</v>
       </c>
       <c r="AE37" s="17" t="inlineStr"/>
       <c r="AG37" s="18" t="inlineStr"/>
@@ -3458,7 +3493,7 @@
         <v>0.581</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.017</v>
+        <v>0.046</v>
       </c>
       <c r="AS37" s="17" t="inlineStr"/>
       <c r="AU37" s="18" t="inlineStr"/>
@@ -3467,10 +3502,10 @@
       <c r="BA37" s="21" t="inlineStr"/>
       <c r="BC37" s="22" t="inlineStr"/>
       <c r="BE37" s="23" t="n">
-        <v>0.663</v>
+        <v>0.656</v>
       </c>
       <c r="BF37" t="n">
-        <v>0.028</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="38">
@@ -3484,35 +3519,35 @@
         <v>0.57</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.102</v>
       </c>
       <c r="E38" s="18" t="n">
-        <v>0.411</v>
+        <v>0.472</v>
       </c>
       <c r="F38" t="n">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="G38" s="19" t="inlineStr"/>
-      <c r="I38" s="20" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.219</v>
-      </c>
+      <c r="I38" s="20" t="inlineStr"/>
       <c r="K38" s="21" t="inlineStr"/>
       <c r="M38" s="22" t="inlineStr"/>
-      <c r="O38" s="23" t="inlineStr"/>
+      <c r="O38" s="23" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.383</v>
+      </c>
       <c r="Q38" s="17" t="n">
         <v>0.597</v>
       </c>
       <c r="R38" t="n">
-        <v>0.037</v>
+        <v>0.109</v>
       </c>
       <c r="S38" s="18" t="n">
-        <v>0.375</v>
+        <v>0.551</v>
       </c>
       <c r="T38" t="n">
-        <v>0.182</v>
+        <v>0.184</v>
       </c>
       <c r="U38" s="19" t="inlineStr"/>
       <c r="W38" s="20" t="inlineStr"/>
@@ -3520,43 +3555,48 @@
       <c r="AA38" s="22" t="inlineStr"/>
       <c r="AC38" s="23" t="inlineStr"/>
       <c r="AE38" s="17" t="n">
-        <v>0.515</v>
+        <v>0.48</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="AG38" s="18" t="inlineStr"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG38" s="18" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.27</v>
+      </c>
       <c r="AI38" s="19" t="inlineStr"/>
       <c r="AK38" s="20" t="inlineStr"/>
       <c r="AM38" s="21" t="inlineStr"/>
       <c r="AO38" s="22" t="inlineStr"/>
       <c r="AQ38" s="23" t="n">
-        <v>0.155</v>
+        <v>0.272</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.155</v>
+        <v>0.272</v>
       </c>
       <c r="AS38" s="17" t="n">
-        <v>0.539</v>
+        <v>0.571</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.048</v>
+        <v>0.074</v>
       </c>
       <c r="AU38" s="18" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.515</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.199</v>
+        <v>0.117</v>
       </c>
       <c r="AW38" s="19" t="inlineStr"/>
       <c r="AY38" s="20" t="inlineStr"/>
       <c r="BA38" s="21" t="inlineStr"/>
       <c r="BC38" s="22" t="inlineStr"/>
       <c r="BE38" s="23" t="n">
-        <v>0.524</v>
+        <v>0.554</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.138</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="39">
@@ -3567,32 +3607,32 @@
         </is>
       </c>
       <c r="C39" s="17" t="n">
-        <v>0.551</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="E39" s="18" t="n">
-        <v>0.463</v>
+        <v>0.419</v>
       </c>
       <c r="F39" t="n">
-        <v>0.241</v>
+        <v>0.419</v>
       </c>
       <c r="G39" s="19" t="n">
-        <v>0.268</v>
+        <v>0.331</v>
       </c>
       <c r="H39" t="n">
-        <v>0.268</v>
+        <v>0.331</v>
       </c>
       <c r="I39" s="20" t="inlineStr"/>
       <c r="K39" s="21" t="inlineStr"/>
       <c r="M39" s="22" t="inlineStr"/>
       <c r="O39" s="23" t="inlineStr"/>
       <c r="Q39" s="17" t="n">
-        <v>0.572</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="R39" t="n">
-        <v>0.044</v>
+        <v>0.131</v>
       </c>
       <c r="S39" s="18" t="inlineStr"/>
       <c r="U39" s="19" t="inlineStr"/>
@@ -3600,16 +3640,16 @@
       <c r="Y39" s="21" t="inlineStr"/>
       <c r="AA39" s="22" t="inlineStr"/>
       <c r="AC39" s="23" t="n">
-        <v>0.462</v>
+        <v>0.337</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.135</v>
+        <v>0.167</v>
       </c>
       <c r="AE39" s="17" t="n">
-        <v>0.538</v>
+        <v>0.509</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.028</v>
+        <v>0.045</v>
       </c>
       <c r="AG39" s="18" t="inlineStr"/>
       <c r="AI39" s="19" t="inlineStr"/>
@@ -3618,26 +3658,26 @@
       <c r="AO39" s="22" t="inlineStr"/>
       <c r="AQ39" s="23" t="inlineStr"/>
       <c r="AS39" s="17" t="n">
-        <v>2.064</v>
+        <v>0.638</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.036</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AU39" s="18" t="n">
-        <v>0.294</v>
+        <v>0.439</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="AW39" s="19" t="inlineStr"/>
       <c r="AY39" s="20" t="inlineStr"/>
       <c r="BA39" s="21" t="inlineStr"/>
       <c r="BC39" s="22" t="inlineStr"/>
       <c r="BE39" s="23" t="n">
-        <v>0.49</v>
+        <v>2.03</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.095</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="40">
@@ -3648,32 +3688,27 @@
         </is>
       </c>
       <c r="C40" s="17" t="n">
-        <v>0.586</v>
+        <v>0.531</v>
       </c>
       <c r="D40" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="E40" s="18" t="inlineStr"/>
-      <c r="G40" s="19" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.436</v>
-      </c>
+      <c r="G40" s="19" t="inlineStr"/>
       <c r="I40" s="20" t="inlineStr"/>
       <c r="K40" s="21" t="inlineStr"/>
       <c r="M40" s="22" t="inlineStr"/>
       <c r="O40" s="23" t="n">
-        <v>0.159</v>
+        <v>0.334</v>
       </c>
       <c r="P40" t="n">
-        <v>0.159</v>
+        <v>0.138</v>
       </c>
       <c r="Q40" s="17" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="R40" t="n">
-        <v>0.001</v>
+        <v>0.036</v>
       </c>
       <c r="S40" s="18" t="inlineStr"/>
       <c r="U40" s="19" t="inlineStr"/>
@@ -3684,51 +3719,51 @@
         <v>0.588</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.05</v>
+        <v>0.115</v>
       </c>
       <c r="AE40" s="17" t="n">
         <v>0.571</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.044</v>
+        <v>0.06</v>
       </c>
       <c r="AG40" s="18" t="n">
-        <v>0.345</v>
+        <v>0.351</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.115</v>
+        <v>0.108</v>
       </c>
       <c r="AI40" s="19" t="inlineStr"/>
       <c r="AK40" s="20" t="inlineStr"/>
       <c r="AM40" s="21" t="inlineStr"/>
       <c r="AO40" s="22" t="inlineStr"/>
       <c r="AQ40" s="23" t="n">
-        <v>0.358</v>
+        <v>0.29</v>
       </c>
       <c r="AR40" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="AS40" s="17" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="AT40" t="n">
         <v>0.112</v>
       </c>
-      <c r="AS40" s="17" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>0.076</v>
-      </c>
       <c r="AU40" s="18" t="n">
-        <v>0.467</v>
+        <v>0.438</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.08</v>
+        <v>0.182</v>
       </c>
       <c r="AW40" s="19" t="inlineStr"/>
       <c r="AY40" s="20" t="inlineStr"/>
       <c r="BA40" s="21" t="inlineStr"/>
       <c r="BC40" s="22" t="inlineStr"/>
       <c r="BE40" s="23" t="n">
-        <v>0.58</v>
+        <v>0.574</v>
       </c>
       <c r="BF40" t="n">
-        <v>0.015</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="41">
@@ -3742,24 +3777,19 @@
         <v>0.599</v>
       </c>
       <c r="D41" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="E41" s="18" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E41" s="18" t="inlineStr"/>
       <c r="G41" s="19" t="inlineStr"/>
       <c r="I41" s="20" t="inlineStr"/>
       <c r="K41" s="21" t="inlineStr"/>
       <c r="M41" s="22" t="inlineStr"/>
       <c r="O41" s="23" t="inlineStr"/>
       <c r="Q41" s="17" t="n">
-        <v>0.543</v>
+        <v>0.548</v>
       </c>
       <c r="R41" t="n">
-        <v>0.057</v>
+        <v>0.15</v>
       </c>
       <c r="S41" s="18" t="inlineStr"/>
       <c r="U41" s="19" t="inlineStr"/>
@@ -3768,10 +3798,10 @@
       <c r="AA41" s="22" t="inlineStr"/>
       <c r="AC41" s="23" t="inlineStr"/>
       <c r="AE41" s="17" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.031</v>
+        <v>0.051</v>
       </c>
       <c r="AG41" s="18" t="inlineStr"/>
       <c r="AI41" s="19" t="inlineStr"/>
@@ -3780,26 +3810,26 @@
       <c r="AO41" s="22" t="inlineStr"/>
       <c r="AQ41" s="23" t="inlineStr"/>
       <c r="AS41" s="17" t="n">
-        <v>0.593</v>
+        <v>0.605</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.021</v>
+        <v>0.062</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>0.418</v>
+        <v>0.519</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.304</v>
       </c>
       <c r="AW41" s="19" t="inlineStr"/>
       <c r="AY41" s="20" t="inlineStr"/>
       <c r="BA41" s="21" t="inlineStr"/>
       <c r="BC41" s="22" t="inlineStr"/>
       <c r="BE41" s="23" t="n">
-        <v>0.407</v>
+        <v>0.467</v>
       </c>
       <c r="BF41" t="n">
-        <v>0.161</v>
+        <v>0.185</v>
       </c>
     </row>
   </sheetData>
